--- a/bin/Debug/13_TSP.xlsx
+++ b/bin/Debug/13_TSP.xlsx
@@ -434,34 +434,34 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1276.6500000000001</v>
+        <v>1002.7</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>985.83</v>
+        <v>803.21</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F2">
-        <v>805.23</v>
+        <v>639.42999999999995</v>
       </c>
       <c r="G2">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="H2">
-        <v>805.23</v>
+        <v>639.42999999999995</v>
       </c>
       <c r="I2">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="J2">
-        <v>819.56</v>
+        <v>853.24</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -469,34 +469,34 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1276.6500000000001</v>
+        <v>1719.98</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>985.83</v>
+        <v>1164.6400000000001</v>
       </c>
       <c r="E3">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="F3">
-        <v>805.23</v>
+        <v>879.87</v>
       </c>
       <c r="G3">
-        <v>628</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>819.38</v>
+        <v>879.87</v>
       </c>
       <c r="I3">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="J3">
-        <v>819.56</v>
+        <v>921.58</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -504,34 +504,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>1276.6500000000001</v>
+        <v>1555.57</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>985.83</v>
+        <v>1245.8399999999999</v>
       </c>
       <c r="E4">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F4">
-        <v>805.23</v>
+        <v>878.97</v>
       </c>
       <c r="G4">
-        <v>666</v>
+        <v>492</v>
       </c>
       <c r="H4">
-        <v>805.23</v>
+        <v>924.52</v>
       </c>
       <c r="I4">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="J4">
-        <v>819.56</v>
+        <v>1032.74</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -539,31 +539,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1276.6500000000001</v>
+        <v>1152.3900000000001</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>985.83</v>
+        <v>1025.48</v>
       </c>
       <c r="E5">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="F5">
-        <v>805.23</v>
+        <v>789.52</v>
       </c>
       <c r="G5">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H5">
-        <v>819.38</v>
+        <v>789.52</v>
       </c>
       <c r="I5">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="J5">
-        <v>819.56</v>
+        <v>891.79</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -574,34 +574,34 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1276.6500000000001</v>
+        <v>1560.55</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>985.83</v>
+        <v>956.42</v>
       </c>
       <c r="E6">
-        <v>417</v>
+        <v>286</v>
       </c>
       <c r="F6">
-        <v>805.23</v>
+        <v>792.97</v>
       </c>
       <c r="G6">
-        <v>599</v>
+        <v>517</v>
       </c>
       <c r="H6">
-        <v>819.38</v>
+        <v>792.97</v>
       </c>
       <c r="I6">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="J6">
-        <v>819.56</v>
+        <v>885.59</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
